--- a/Naukri/src/test/resources/testdata/naukri1.xlsx
+++ b/Naukri/src/test/resources/testdata/naukri1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t xml:space="preserve">email </t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>!1234567</t>
+  </si>
+  <si>
+    <t>marri24@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -446,6 +449,38 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
@@ -455,6 +490,10 @@
     <hyperlink ref="A5" r:id="rId5"/>
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
